--- a/data/xlsx/resumen.xlsx
+++ b/data/xlsx/resumen.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="414">
   <si>
     <t xml:space="preserve">Municipio</t>
   </si>
@@ -757,63 +757,51 @@
     <t xml:space="preserve">Faltan datos de todo el 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">DATOS HASTA EL 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTACION DE FONDO URBANO</t>
+    <t xml:space="preserve">DATE_START = 01/01/2014</t>
   </si>
   <si>
     <t xml:space="preserve">Datos desde el 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE_START = 01/01/2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE_START = 15/02/2013</t>
   </si>
   <si>
     <t xml:space="preserve">DATE_START = 18/05/2011</t>
   </si>
   <si>
+    <t xml:space="preserve">DATE_START = 31/05/2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Datos hasta el 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE_START = 31/05/2010</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE_START = 18/01/2010</t>
   </si>
   <si>
     <t xml:space="preserve">DATE_START = 01/01/2013</t>
   </si>
   <si>
+    <t xml:space="preserve">DATE_START = 02/11/2012</t>
+  </si>
+  <si>
     <t xml:space="preserve">Faltan datos desde el 2014 al 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE_START = 02/11/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_START = 18/02/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE_START = 28/05/2010</t>
   </si>
   <si>
-    <t xml:space="preserve">No valen para el estudio</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE_START = 08/04/2013</t>
   </si>
   <si>
     <t xml:space="preserve">DATE_START = 01/04/2011</t>
   </si>
   <si>
+    <t xml:space="preserve">Eliminadas al filtrar estaciones con datos hasta el 2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATE_START = 22/05/2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Eliminadas al filtrar estaciones con datos hasta el 2010</t>
-  </si>
-  <si>
     <t xml:space="preserve">station</t>
   </si>
   <si>
@@ -836,6 +824,29 @@
   </si>
   <si>
     <t xml:space="preserve">082210-99999</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Repetido: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Identificador de las estaciones meteorologicas repetidas</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">MADRID RETIRO</t>
@@ -1283,9 +1294,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1340,14 +1352,14 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1454,12 +1466,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FFB4C7DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF395511"/>
-        <bgColor rgb="FF333333"/>
       </patternFill>
     </fill>
     <fill>
@@ -1575,7 +1581,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1656,10 +1662,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1668,40 +1670,64 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1740,6 +1766,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1748,7 +1778,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1756,32 +1794,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1825,10 +1863,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1894,7 +1928,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF395511"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF8D1D75"/>
       <rgbColor rgb="FF5B277D"/>
@@ -1911,8 +1945,8 @@
   </sheetPr>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A71" activeCellId="1" sqref="K81:N81 A71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B27" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3576,7 +3610,7 @@
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K81" activeCellId="0" sqref="K81:N81"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3729,7 +3763,9 @@
       <c r="F3" s="7" t="n">
         <v>151</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8" t="n">
+        <v>42736</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -3739,13 +3775,17 @@
         <v>238</v>
       </c>
       <c r="R3" s="11"/>
-      <c r="S3" s="8"/>
+      <c r="S3" s="8" t="n">
+        <v>42736</v>
+      </c>
       <c r="T3" s="8"/>
       <c r="U3" s="7" t="s">
         <v>238</v>
       </c>
       <c r="V3" s="11"/>
-      <c r="W3" s="8"/>
+      <c r="W3" s="8" t="n">
+        <v>43888</v>
+      </c>
       <c r="X3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,38 +4190,48 @@
       <c r="C11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
+      <c r="E11" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23" t="n">
+        <v>40179</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27" t="n">
+        <v>40179</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30" t="n">
+        <v>40179</v>
+      </c>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33" t="n">
+        <v>40179</v>
+      </c>
+      <c r="T11" s="24"/>
+      <c r="U11" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="V11" s="35"/>
+      <c r="W11" s="36" t="n">
+        <v>40179</v>
+      </c>
       <c r="X11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,7 +4600,7 @@
       <c r="W18" s="19" t="n">
         <v>40102</v>
       </c>
-      <c r="X18" s="32"/>
+      <c r="X18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
@@ -4595,23 +4645,23 @@
         <v>38520</v>
       </c>
       <c r="P19" s="15"/>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="R19" s="33" t="n">
+      <c r="R19" s="38" t="n">
         <v>2023</v>
       </c>
-      <c r="S19" s="32" t="n">
+      <c r="S19" s="37" t="n">
         <v>38770</v>
       </c>
-      <c r="T19" s="32"/>
-      <c r="U19" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="V19" s="33" t="n">
+      <c r="T19" s="37"/>
+      <c r="U19" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="V19" s="38" t="n">
         <v>18333</v>
       </c>
-      <c r="W19" s="32" t="n">
+      <c r="W19" s="37" t="n">
         <v>39818</v>
       </c>
       <c r="X19" s="19"/>
@@ -4793,16 +4843,16 @@
       <c r="X22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="34" t="n">
+      <c r="B23" s="39" t="n">
         <v>271780</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="39" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -4849,16 +4899,16 @@
       <c r="X23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="34" t="n">
+      <c r="B24" s="39" t="n">
         <v>271782</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -4905,16 +4955,16 @@
       <c r="X24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="34" t="n">
+      <c r="B25" s="39" t="n">
         <v>271781</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -4969,16 +5019,16 @@
       <c r="X25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="34" t="n">
+      <c r="B26" s="39" t="n">
         <v>271783</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="39" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -5025,16 +5075,16 @@
       <c r="X26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="35" t="n">
+      <c r="B27" s="40" t="n">
         <v>1636763</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="40" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -5067,30 +5117,30 @@
         <v>35431</v>
       </c>
       <c r="P27" s="15"/>
-      <c r="Q27" s="33" t="s">
+      <c r="Q27" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="R27" s="33" t="n">
+      <c r="R27" s="38" t="n">
         <v>1673</v>
       </c>
-      <c r="S27" s="32" t="n">
+      <c r="S27" s="37" t="n">
         <v>37272</v>
       </c>
-      <c r="T27" s="32"/>
+      <c r="T27" s="37"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="35" t="n">
+      <c r="B28" s="40" t="n">
         <v>1636762</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -5113,40 +5163,40 @@
         <v>36526</v>
       </c>
       <c r="L28" s="13"/>
-      <c r="M28" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="N28" s="36" t="n">
+      <c r="M28" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="N28" s="41" t="n">
         <v>119427</v>
       </c>
-      <c r="O28" s="37" t="n">
+      <c r="O28" s="42" t="n">
         <v>35738</v>
       </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="33" t="s">
+      <c r="P28" s="42"/>
+      <c r="Q28" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="R28" s="33" t="n">
+      <c r="R28" s="38" t="n">
         <v>1967</v>
       </c>
-      <c r="S28" s="32" t="n">
+      <c r="S28" s="37" t="n">
         <v>37258</v>
       </c>
-      <c r="T28" s="32"/>
+      <c r="T28" s="37"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="38" t="n">
+      <c r="B29" s="43" t="n">
         <v>251775</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="43" t="s">
         <v>201</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -5193,16 +5243,16 @@
       <c r="X29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="38" t="n">
+      <c r="B30" s="43" t="n">
         <v>251774</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="43" t="s">
         <v>199</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -5249,16 +5299,16 @@
       <c r="X30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="38" t="n">
+      <c r="B31" s="43" t="n">
         <v>251776</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="43" t="s">
         <v>203</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -5289,16 +5339,16 @@
       <c r="X31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="39" t="n">
+      <c r="B32" s="44" t="n">
         <v>298412</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="44" t="s">
         <v>184</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -5345,16 +5395,16 @@
       <c r="X32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="39" t="n">
+      <c r="B33" s="44" t="n">
         <v>298414</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="44" t="s">
         <v>188</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -5409,16 +5459,16 @@
       <c r="X33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="40" t="n">
+      <c r="B34" s="45" t="n">
         <v>187416</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -5465,16 +5515,16 @@
       <c r="X34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="40" t="n">
+      <c r="B35" s="45" t="n">
         <v>187417</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="45" t="s">
         <v>148</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -5545,43 +5595,43 @@
       <c r="B36" s="1" t="n">
         <v>201653</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" s="41" t="s">
+      <c r="E36" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="G36" s="41"/>
+      <c r="G36" s="46"/>
       <c r="H36" s="0"/>
-      <c r="I36" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="J36" s="41" t="s">
+      <c r="I36" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="K36" s="41"/>
+      <c r="K36" s="46"/>
       <c r="L36" s="0"/>
-      <c r="M36" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="N36" s="41" t="s">
+      <c r="M36" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="N36" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="O36" s="41"/>
+      <c r="O36" s="46"/>
       <c r="P36" s="0"/>
-      <c r="Q36" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="R36" s="41" t="s">
+      <c r="Q36" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="R36" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="S36" s="41"/>
+      <c r="S36" s="46"/>
       <c r="T36" s="0"/>
       <c r="U36" s="0"/>
       <c r="V36" s="0"/>
@@ -5641,26 +5691,26 @@
         <v>37509</v>
       </c>
       <c r="P37" s="15"/>
-      <c r="Q37" s="33" t="s">
+      <c r="Q37" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="R37" s="33" t="n">
+      <c r="R37" s="38" t="n">
         <v>2621</v>
       </c>
-      <c r="S37" s="32" t="n">
+      <c r="S37" s="37" t="n">
         <v>37622</v>
       </c>
-      <c r="T37" s="32"/>
-      <c r="U37" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="V37" s="33" t="n">
+      <c r="T37" s="37"/>
+      <c r="U37" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="V37" s="38" t="n">
         <v>8483</v>
       </c>
-      <c r="W37" s="32" t="n">
+      <c r="W37" s="37" t="n">
         <v>39814</v>
       </c>
-      <c r="X37" s="32"/>
+      <c r="X37" s="37"/>
     </row>
     <row r="38" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -5705,26 +5755,26 @@
         <v>38755</v>
       </c>
       <c r="P38" s="15"/>
-      <c r="Q38" s="33" t="s">
+      <c r="Q38" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="R38" s="33" t="n">
+      <c r="R38" s="38" t="n">
         <v>1775</v>
       </c>
-      <c r="S38" s="32" t="n">
+      <c r="S38" s="37" t="n">
         <v>38777</v>
       </c>
-      <c r="T38" s="32"/>
-      <c r="U38" s="33" t="s">
+      <c r="T38" s="37"/>
+      <c r="U38" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="V38" s="33" t="n">
+      <c r="V38" s="38" t="n">
         <v>127</v>
       </c>
-      <c r="W38" s="32" t="n">
+      <c r="W38" s="37" t="n">
         <v>38790</v>
       </c>
-      <c r="X38" s="32"/>
+      <c r="X38" s="37"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -5769,26 +5819,26 @@
         <v>39280</v>
       </c>
       <c r="P39" s="15"/>
-      <c r="Q39" s="33" t="s">
+      <c r="Q39" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="R39" s="33" t="n">
+      <c r="R39" s="38" t="n">
         <v>1591</v>
       </c>
-      <c r="S39" s="32" t="n">
+      <c r="S39" s="37" t="n">
         <v>39281</v>
       </c>
-      <c r="T39" s="32"/>
-      <c r="U39" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="V39" s="33" t="n">
+      <c r="T39" s="37"/>
+      <c r="U39" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="V39" s="38" t="n">
         <v>7793</v>
       </c>
-      <c r="W39" s="32" t="n">
+      <c r="W39" s="37" t="n">
         <v>39814</v>
       </c>
-      <c r="X39" s="32"/>
+      <c r="X39" s="37"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
@@ -5823,26 +5873,26 @@
         <v>36526</v>
       </c>
       <c r="L40" s="13"/>
-      <c r="M40" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="N40" s="36" t="n">
+      <c r="M40" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="N40" s="41" t="n">
         <v>88979</v>
       </c>
-      <c r="O40" s="37" t="n">
+      <c r="O40" s="42" t="n">
         <v>36161</v>
       </c>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="33" t="s">
+      <c r="P40" s="42"/>
+      <c r="Q40" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="R40" s="33" t="n">
+      <c r="R40" s="38" t="n">
         <v>1985</v>
       </c>
-      <c r="S40" s="32" t="n">
+      <c r="S40" s="37" t="n">
         <v>37258</v>
       </c>
-      <c r="T40" s="32"/>
+      <c r="T40" s="37"/>
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
     </row>
@@ -6095,36 +6145,36 @@
         <v>36526</v>
       </c>
       <c r="L45" s="13"/>
-      <c r="M45" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="N45" s="36" t="n">
+      <c r="M45" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="N45" s="41" t="n">
         <v>116948</v>
       </c>
-      <c r="O45" s="37" t="n">
+      <c r="O45" s="42" t="n">
         <v>36161</v>
       </c>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="33" t="s">
+      <c r="P45" s="42"/>
+      <c r="Q45" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="R45" s="33" t="n">
+      <c r="R45" s="38" t="n">
         <v>1417</v>
       </c>
-      <c r="S45" s="32" t="n">
+      <c r="S45" s="37" t="n">
         <v>37260</v>
       </c>
-      <c r="T45" s="32"/>
-      <c r="U45" s="33" t="s">
+      <c r="T45" s="37"/>
+      <c r="U45" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="V45" s="33" t="n">
+      <c r="V45" s="38" t="n">
         <v>899</v>
       </c>
-      <c r="W45" s="32" t="n">
+      <c r="W45" s="37" t="n">
         <v>39211</v>
       </c>
-      <c r="X45" s="32"/>
+      <c r="X45" s="37"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
@@ -6159,26 +6209,26 @@
         <v>36526</v>
       </c>
       <c r="L46" s="13"/>
-      <c r="M46" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="N46" s="36" t="n">
+      <c r="M46" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="N46" s="41" t="n">
         <v>132549</v>
       </c>
-      <c r="O46" s="37" t="n">
+      <c r="O46" s="42" t="n">
         <v>35431</v>
       </c>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="33" t="s">
+      <c r="P46" s="42"/>
+      <c r="Q46" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="R46" s="33" t="n">
+      <c r="R46" s="38" t="n">
         <v>1627</v>
       </c>
-      <c r="S46" s="32" t="n">
+      <c r="S46" s="37" t="n">
         <v>36256</v>
       </c>
-      <c r="T46" s="32"/>
+      <c r="T46" s="37"/>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
     </row>
@@ -8811,73 +8861,77 @@
       <c r="AMJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="42" t="n">
-        <v>245711</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="43" t="s">
+      <c r="A58" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="48" t="n">
+        <v>325701</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="F58" s="43"/>
+      <c r="F58" s="49"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="42" t="n">
-        <v>334887</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="F59" s="43"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="44" t="s">
+      <c r="A59" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="48" t="n">
+        <v>183374</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
+      <c r="F59" s="49"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
     </row>
     <row r="60" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="42" t="n">
-        <v>325701</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="42" t="s">
+      <c r="A60" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="48" t="n">
+        <v>101852</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="F60" s="42"/>
+      <c r="F60" s="49"/>
       <c r="G60" s="0"/>
       <c r="H60" s="0"/>
       <c r="I60" s="0"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
       <c r="Q60" s="0"/>
       <c r="R60" s="0"/>
       <c r="S60" s="0"/>
@@ -8885,89 +8939,89 @@
       <c r="U60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="42" t="n">
-        <v>183374</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="42" t="s">
+      <c r="A61" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="48" t="n">
+        <v>3266133</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="F61" s="42"/>
+      <c r="F61" s="49"/>
       <c r="G61" s="0"/>
       <c r="H61" s="0"/>
       <c r="I61" s="0"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
-      <c r="R61" s="44"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="R61" s="52"/>
     </row>
     <row r="62" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="42" t="n">
-        <v>101852</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="F62" s="42"/>
+      <c r="A62" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="48" t="n">
+        <v>3266135</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62" s="49"/>
       <c r="G62" s="0"/>
       <c r="H62" s="0"/>
       <c r="I62" s="0"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
       <c r="Q62" s="0"/>
       <c r="R62" s="0"/>
       <c r="S62" s="0"/>
       <c r="T62" s="0"/>
       <c r="U62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" s="42" t="n">
-        <v>3266133</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="42" t="s">
+    <row r="63" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="48" t="n">
+        <v>574654</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="0"/>
       <c r="H63" s="0"/>
       <c r="I63" s="0"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
       <c r="Q63" s="0"/>
       <c r="R63" s="0"/>
       <c r="S63" s="0"/>
@@ -8975,29 +9029,32 @@
       <c r="U63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="42" t="n">
-        <v>3266135</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="42" t="s">
+      <c r="A64" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="48" t="n">
+        <v>143386</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="F64" s="42"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="0"/>
       <c r="H64" s="0"/>
       <c r="I64" s="0"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
       <c r="Q64" s="0"/>
       <c r="R64" s="0"/>
       <c r="S64" s="0"/>
@@ -9005,84 +9062,85 @@
       <c r="U64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" s="42" t="n">
-        <v>574654</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F65" s="42"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="46" t="s">
+      <c r="A65" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="48" t="n">
+        <v>794290</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
+      <c r="F65" s="49"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
       <c r="Q65" s="0"/>
       <c r="R65" s="0"/>
       <c r="S65" s="0"/>
       <c r="T65" s="0"/>
       <c r="U65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="42" t="n">
-        <v>143386</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="42" t="s">
+    <row r="66" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="48" t="n">
+        <v>298413</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
+      <c r="F66" s="49"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
       <c r="Q66" s="0"/>
       <c r="R66" s="0"/>
       <c r="S66" s="0"/>
       <c r="T66" s="0"/>
       <c r="U66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="42" t="n">
-        <v>187415</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" s="43" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="48" t="n">
+        <v>298415</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F67" s="43"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
+      <c r="F67" s="49"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
       <c r="Q67" s="0"/>
       <c r="R67" s="0"/>
       <c r="S67" s="0"/>
@@ -9090,29 +9148,28 @@
       <c r="U67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" s="42" t="n">
-        <v>794290</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="F68" s="42"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="44" t="s">
+      <c r="A68" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="48" t="n">
+        <v>295365</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
+      <c r="F68" s="49"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
       <c r="Q68" s="0"/>
       <c r="R68" s="0"/>
       <c r="S68" s="0"/>
@@ -9120,27 +9177,18 @@
       <c r="U68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" s="42" t="n">
-        <v>298413</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="F69" s="42"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
+      <c r="A69" s="0"/>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="0"/>
+      <c r="N69" s="0"/>
+      <c r="O69" s="0"/>
       <c r="Q69" s="0"/>
       <c r="R69" s="0"/>
       <c r="S69" s="0"/>
@@ -9148,61 +9196,39 @@
       <c r="U69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="42" t="n">
-        <v>298415</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="F70" s="42"/>
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
       <c r="J70" s="0"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="B71" s="42" t="n">
-        <v>295365</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="F71" s="42"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="46"/>
+      <c r="A71" s="0"/>
+      <c r="B71" s="0"/>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+      <c r="J71" s="0"/>
+      <c r="K71" s="0"/>
+      <c r="L71" s="0"/>
+      <c r="M71" s="0"/>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J72" s="49"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="46"/>
-      <c r="O72" s="46"/>
+      <c r="J72" s="0"/>
+      <c r="K72" s="0"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="0"/>
+      <c r="N72" s="0"/>
+      <c r="O72" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I74" s="0"/>
@@ -9228,16 +9254,16 @@
     <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I81" s="0"/>
       <c r="J81" s="0"/>
-      <c r="K81" s="44"/>
+      <c r="K81" s="52"/>
     </row>
     <row r="82" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I82" s="0"/>
-      <c r="K82" s="44"/>
+      <c r="K82" s="52"/>
     </row>
     <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I83" s="0"/>
       <c r="J83" s="0"/>
-      <c r="K83" s="44"/>
+      <c r="K83" s="52"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I84" s="0"/>
@@ -9254,7 +9280,7 @@
       <c r="J87" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="28">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
@@ -9265,29 +9291,24 @@
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="E58:F58"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:N59"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:N60"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="E61:F61"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:N62"/>
     <mergeCell ref="E62:F62"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:N63"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="E64:F64"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:N65"/>
     <mergeCell ref="E65:F65"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:N66"/>
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="E67:F67"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:O68"/>
     <mergeCell ref="E68:F68"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:N69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:O72"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9304,10 +9325,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P75" activeCellId="1" sqref="K81:N81 P75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9337,16 +9358,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9363,10 +9384,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>6.08118610888605</v>
@@ -9386,16 +9407,19 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>16.071079929175</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9412,10 +9436,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>26.7271751727634</v>
@@ -9438,10 +9462,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>8.38569957966097</v>
@@ -9464,10 +9488,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>11.7362959279078</v>
@@ -9490,10 +9514,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>14.0826768546603</v>
@@ -9516,10 +9540,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>2.58633915938344</v>
@@ -9542,10 +9566,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>11.4243923201987</v>
@@ -9568,10 +9592,10 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>71.4809843024893</v>
@@ -9591,10 +9615,10 @@
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>6.83358405883629</v>
@@ -9614,10 +9638,10 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>110.496728733166</v>
@@ -9640,10 +9664,10 @@
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>124.275390516425</v>
@@ -9666,10 +9690,10 @@
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>3.92517338628133</v>
@@ -9692,10 +9716,10 @@
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>11.6861277244228</v>
@@ -9718,10 +9742,10 @@
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>15.3113661341784</v>
@@ -9744,10 +9768,10 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>2.64791099141519</v>
@@ -9770,10 +9794,10 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>12.9456888999302</v>
@@ -9796,10 +9820,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>13.8817343696629</v>
@@ -9822,10 +9846,10 @@
         <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>5.46400877419572</v>
@@ -9848,10 +9872,10 @@
         <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45.5037375173929</v>
@@ -9874,10 +9898,10 @@
         <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>73.1370398364316</v>
@@ -9900,10 +9924,10 @@
         <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>5.36353983996675</v>
@@ -9926,10 +9950,10 @@
         <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>50.9958235024084</v>
@@ -9952,10 +9976,10 @@
         <v>36</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>69.4373388565049</v>
@@ -9978,10 +10002,10 @@
         <v>34</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>4.20869015996503</v>
@@ -10004,10 +10028,10 @@
         <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>46.0674485005176</v>
@@ -10030,10 +10054,10 @@
         <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>73.1187208272004</v>
@@ -10056,10 +10080,10 @@
         <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>4.55364787174155</v>
@@ -10079,10 +10103,10 @@
         <v>40</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>50.5848047249809</v>
@@ -10105,10 +10129,10 @@
         <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>85.5860249647093</v>
@@ -10131,10 +10155,10 @@
         <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>1.78970978874477</v>
@@ -10154,10 +10178,10 @@
         <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>7.51029680964662</v>
@@ -10177,10 +10201,10 @@
         <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>17.5836961334669</v>
@@ -10203,10 +10227,10 @@
         <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>5.55344335965475</v>
@@ -10226,10 +10250,10 @@
         <v>47</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>57.8690776941937</v>
@@ -10252,10 +10276,10 @@
         <v>47</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>63.9968252759208</v>
@@ -10278,10 +10302,10 @@
         <v>53</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>14.1536984166709</v>
@@ -10304,10 +10328,10 @@
         <v>53</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>22.4471050741635</v>
@@ -10330,10 +10354,10 @@
         <v>53</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>48.747046480344</v>
@@ -10353,10 +10377,10 @@
         <v>58</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>4.87820055208496</v>
@@ -10379,10 +10403,10 @@
         <v>58</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>26.6079344280865</v>
@@ -10405,10 +10429,10 @@
         <v>58</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>30.5272874243526</v>
@@ -10431,10 +10455,10 @@
         <v>62</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>3.13694968970094</v>
@@ -10457,10 +10481,10 @@
         <v>62</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>24.9980976955496</v>
@@ -10483,10 +10507,10 @@
         <v>62</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>27.2305851477311</v>
@@ -10509,10 +10533,10 @@
         <v>60</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>4.64539130138419</v>
@@ -10535,10 +10559,10 @@
         <v>60</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>25.3816980720233</v>
@@ -10561,10 +10585,10 @@
         <v>60</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>29.3808405657138</v>
@@ -10587,10 +10611,10 @@
         <v>64</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>5.42309278663489</v>
@@ -10613,10 +10637,10 @@
         <v>64</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>27.4612681183075</v>
@@ -10639,10 +10663,10 @@
         <v>64</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>31.476501127974</v>
@@ -10665,10 +10689,10 @@
         <v>70</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>7.31486853336298</v>
@@ -10691,10 +10715,10 @@
         <v>70</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>14.5784351539425</v>
@@ -10717,10 +10741,10 @@
         <v>70</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>67.7047647329024</v>
@@ -10740,10 +10764,10 @@
         <v>73</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>3.66593912604859</v>
@@ -10763,10 +10787,10 @@
         <v>73</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>83.0336164690423</v>
@@ -10789,10 +10813,10 @@
         <v>73</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>84.880167419175</v>
@@ -10815,10 +10839,10 @@
         <v>76</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>22.8780023894573</v>
@@ -10838,10 +10862,10 @@
         <v>76</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>87.3987039744161</v>
@@ -10861,10 +10885,10 @@
         <v>76</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>95.2959721846085</v>
@@ -10884,10 +10908,10 @@
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>4.33502688771549</v>
@@ -10910,10 +10934,10 @@
         <v>78</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>5.70172192220295</v>
@@ -10933,10 +10957,10 @@
         <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>10.5148291386553</v>
@@ -10959,10 +10983,10 @@
         <v>81</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>5.86818171010514</v>
@@ -10982,10 +11006,10 @@
         <v>81</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>83.0163877655847</v>
@@ -11005,10 +11029,10 @@
         <v>81</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>86.0291633946206</v>
@@ -11031,10 +11055,10 @@
         <v>84</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>2.3170334026479</v>
@@ -11054,10 +11078,10 @@
         <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>14.1250284294602</v>
@@ -11077,10 +11101,10 @@
         <v>84</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>68.207436674616</v>
@@ -11100,10 +11124,10 @@
         <v>90</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>2.59894576494015</v>
@@ -11126,10 +11150,10 @@
         <v>90</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>2.90085651724137</v>
@@ -11152,10 +11176,10 @@
         <v>90</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>8.54005254194238</v>
@@ -11178,10 +11202,10 @@
         <v>94</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>3.37090392213814</v>
@@ -11204,10 +11228,10 @@
         <v>94</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>3.88565030560885</v>
@@ -11230,10 +11254,10 @@
         <v>94</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>10.4443494989782</v>
@@ -11256,10 +11280,10 @@
         <v>96</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>3.34497579723684</v>
@@ -11282,10 +11306,10 @@
         <v>96</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>7.65552906932604</v>
@@ -11308,10 +11332,10 @@
         <v>96</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>11.6274976703486</v>
@@ -11334,10 +11358,10 @@
         <v>98</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>3.18608298548</v>
@@ -11360,10 +11384,10 @@
         <v>98</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>7.23066839321225</v>
@@ -11386,10 +11410,10 @@
         <v>98</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>12.3347063140363</v>
@@ -11412,10 +11436,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>1.04016862596507</v>
@@ -11438,10 +11462,10 @@
         <v>100</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>3.71562349202969</v>
@@ -11464,10 +11488,10 @@
         <v>100</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>10.6074262383073</v>
@@ -11490,10 +11514,10 @@
         <v>120</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>61.3443068493672</v>
@@ -11516,10 +11540,10 @@
         <v>120</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>63.0673895254065</v>
@@ -11542,10 +11566,10 @@
         <v>120</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>74.6770720374653</v>
@@ -11565,10 +11589,10 @@
         <v>125</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>0.924191976622005</v>
@@ -11591,10 +11615,10 @@
         <v>125</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>26.6145243388797</v>
@@ -11617,10 +11641,10 @@
         <v>125</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>26.812206078278</v>
@@ -11643,10 +11667,10 @@
         <v>123</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>3.30485802174711</v>
@@ -11669,10 +11693,10 @@
         <v>123</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>24.7437693684874</v>
@@ -11695,10 +11719,10 @@
         <v>123</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>27.3504784741642</v>
@@ -11721,10 +11745,10 @@
         <v>128</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>2.96913413712222</v>
@@ -11744,10 +11768,10 @@
         <v>128</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>6.98215355633658</v>
@@ -11767,10 +11791,10 @@
         <v>128</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>18.857645976006</v>
@@ -11790,10 +11814,10 @@
         <v>138</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>4.91347186553811</v>
@@ -11816,10 +11840,10 @@
         <v>138</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>10.6323548649785</v>
@@ -11842,10 +11866,10 @@
         <v>138</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>16.2461383505128</v>
@@ -11868,10 +11892,10 @@
         <v>141</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>3.48766614650577</v>
@@ -11891,10 +11915,10 @@
         <v>141</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>14.0382640074482</v>
@@ -11914,10 +11938,10 @@
         <v>141</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>60.0717412854206</v>
@@ -11937,10 +11961,10 @@
         <v>146</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>6.3406938157437</v>
@@ -11963,10 +11987,10 @@
         <v>146</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G105" s="1" t="n">
         <v>14.2651319809289</v>
@@ -11989,10 +12013,10 @@
         <v>146</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>24.067317735007</v>
@@ -12015,10 +12039,10 @@
         <v>148</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>2.07135560163817</v>
@@ -12041,10 +12065,10 @@
         <v>148</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>18.5564587966287</v>
@@ -12067,10 +12091,10 @@
         <v>148</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>28.360862659443</v>
@@ -12093,10 +12117,10 @@
         <v>155</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G110" s="1" t="n">
         <v>2.5901401585729</v>
@@ -12119,10 +12143,10 @@
         <v>155</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>3.84332775466891</v>
@@ -12145,10 +12169,10 @@
         <v>155</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>74.6799379734395</v>
@@ -12171,10 +12195,10 @@
         <v>161</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>6.9795678748564</v>
@@ -12197,10 +12221,10 @@
         <v>161</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>8.28603342321921</v>
@@ -12223,10 +12247,10 @@
         <v>161</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G115" s="1" t="n">
         <v>38.2841422937175</v>
@@ -12249,10 +12273,10 @@
         <v>159</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>8.62418444409659</v>
@@ -12275,10 +12299,10 @@
         <v>159</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>10.0692307996459</v>
@@ -12301,10 +12325,10 @@
         <v>159</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>42.0555800455356</v>
@@ -12327,10 +12351,10 @@
         <v>167</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G119" s="1" t="n">
         <v>8.58636045023814</v>
@@ -12353,10 +12377,10 @@
         <v>167</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>8.84983872341247</v>
@@ -12379,10 +12403,10 @@
         <v>167</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>18.6746306346566</v>
@@ -12405,10 +12429,10 @@
         <v>181</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>3.11084056853165</v>
@@ -12431,10 +12455,10 @@
         <v>181</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>5.51573659843163</v>
@@ -12457,10 +12481,10 @@
         <v>181</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>11.3320319522434</v>
@@ -12483,10 +12507,10 @@
         <v>170</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>3.05253841878696</v>
@@ -12509,10 +12533,10 @@
         <v>170</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>9.8192087100704</v>
@@ -12535,10 +12559,10 @@
         <v>170</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>15.4773119098607</v>
@@ -12561,10 +12585,10 @@
         <v>178</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>4.18944410998739</v>
@@ -12587,10 +12611,10 @@
         <v>178</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G129" s="1" t="n">
         <v>5.96089096841238</v>
@@ -12613,10 +12637,10 @@
         <v>178</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G130" s="1" t="n">
         <v>8.63304526397962</v>
@@ -12639,10 +12663,10 @@
         <v>172</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>4.46767930464794</v>
@@ -12665,10 +12689,10 @@
         <v>172</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>12.4527162501011</v>
@@ -12691,10 +12715,10 @@
         <v>172</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>16.7130758714576</v>
@@ -12717,10 +12741,10 @@
         <v>184</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G134" s="1" t="n">
         <v>2.15295833302528</v>
@@ -12743,10 +12767,10 @@
         <v>184</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G135" s="1" t="n">
         <v>12.1398034837076</v>
@@ -12769,10 +12793,10 @@
         <v>184</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>40.8641202830792</v>
@@ -12795,10 +12819,10 @@
         <v>188</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>1.41122334887268</v>
@@ -12821,10 +12845,10 @@
         <v>188</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>12.916327929675</v>
@@ -12847,10 +12871,10 @@
         <v>188</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>43.908421006506</v>
@@ -12873,10 +12897,10 @@
         <v>193</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G140" s="1" t="n">
         <v>9.58699233304989</v>
@@ -12899,10 +12923,10 @@
         <v>193</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>25.9230400324003</v>
@@ -12925,10 +12949,10 @@
         <v>193</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G142" s="1" t="n">
         <v>65.3360483965459</v>
@@ -12948,10 +12972,10 @@
         <v>201</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G143" s="1" t="n">
         <v>5.47275919638933</v>
@@ -12974,10 +12998,10 @@
         <v>201</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G144" s="1" t="n">
         <v>49.7782527401964</v>
@@ -13000,10 +13024,10 @@
         <v>201</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G145" s="1" t="n">
         <v>52.8053142814268</v>
@@ -13026,10 +13050,10 @@
         <v>199</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G146" s="1" t="n">
         <v>4.7206883818778</v>
@@ -13052,10 +13076,10 @@
         <v>199</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G147" s="1" t="n">
         <v>48.8853114791864</v>
@@ -13078,10 +13102,10 @@
         <v>199</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" s="1" t="n">
         <v>53.0238789960061</v>
@@ -13104,10 +13128,10 @@
         <v>203</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>6.72487265476337</v>
@@ -13130,10 +13154,10 @@
         <v>203</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>49.3058120300299</v>
@@ -13156,10 +13180,10 @@
         <v>203</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>51.3514175471373</v>
@@ -13182,10 +13206,10 @@
         <v>207</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G152" s="1" t="n">
         <v>10.5838200848442</v>
@@ -13208,10 +13232,10 @@
         <v>207</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G153" s="1" t="n">
         <v>68.078762518023</v>
@@ -13234,10 +13258,10 @@
         <v>207</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G154" s="1" t="n">
         <v>75.3137338576049</v>
@@ -13260,10 +13284,10 @@
         <v>209</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G155" s="1" t="n">
         <v>15.1915626672097</v>
@@ -13286,10 +13310,10 @@
         <v>209</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G156" s="1" t="n">
         <v>65.7332326448619</v>
@@ -13312,10 +13336,10 @@
         <v>209</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G157" s="1" t="n">
         <v>78.8282703723504</v>
@@ -13338,10 +13362,10 @@
         <v>155</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G158" s="1" t="n">
         <v>13.2815431951498</v>
@@ -13364,10 +13388,10 @@
         <v>155</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G159" s="1" t="n">
         <v>66.4610107981835</v>
@@ -13390,10 +13414,10 @@
         <v>155</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>77.1781059705605</v>
@@ -13421,7 +13445,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V15" activeCellId="1" sqref="K81:N81 V15"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13447,69 +13471,69 @@
     <row r="1" customFormat="false" ht="29.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>159</v>
@@ -13574,7 +13598,7 @@
     </row>
     <row r="3" customFormat="false" ht="24.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>159</v>
@@ -13639,7 +13663,7 @@
     </row>
     <row r="4" customFormat="false" ht="24.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>159</v>
@@ -13704,7 +13728,7 @@
     </row>
     <row r="5" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>159</v>
@@ -13786,7 +13810,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="K81:N81 A4"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13817,16 +13841,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13843,10 +13867,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>16.071079929175</v>
@@ -13869,10 +13893,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>8.38569957966097</v>
@@ -13895,10 +13919,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>2.58633915938344</v>
@@ -13921,10 +13945,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>11.4243923201987</v>
@@ -13947,10 +13971,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>71.4809843024893</v>
@@ -13970,10 +13994,10 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6.83358405883629</v>
@@ -13993,10 +14017,10 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>124.275390516425</v>
@@ -14019,10 +14043,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>11.6861277244228</v>
@@ -14045,10 +14069,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>12.9456888999302</v>
@@ -14071,10 +14095,10 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>5.46400877419572</v>
@@ -14097,10 +14121,10 @@
         <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45.5037375173929</v>
@@ -14123,10 +14147,10 @@
         <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>73.1370398364316</v>
@@ -14149,10 +14173,10 @@
         <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>5.36353983996675</v>
@@ -14175,10 +14199,10 @@
         <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>50.9958235024084</v>
@@ -14201,10 +14225,10 @@
         <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>69.4373388565049</v>
@@ -14227,10 +14251,10 @@
         <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>4.20869015996503</v>
@@ -14253,10 +14277,10 @@
         <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>46.0674485005176</v>
@@ -14279,10 +14303,10 @@
         <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>73.1187208272004</v>
@@ -14305,10 +14329,10 @@
         <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>5.55344335965475</v>
@@ -14328,10 +14352,10 @@
         <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>63.9968252759208</v>
@@ -14354,10 +14378,10 @@
         <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>14.1536984166709</v>
@@ -14380,10 +14404,10 @@
         <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>22.4471050741635</v>
@@ -14406,10 +14430,10 @@
         <v>53</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>48.747046480344</v>
@@ -14429,10 +14453,10 @@
         <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>4.87820055208496</v>
@@ -14455,10 +14479,10 @@
         <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>26.6079344280865</v>
@@ -14481,10 +14505,10 @@
         <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>30.5272874243526</v>
@@ -14507,10 +14531,10 @@
         <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>3.13694968970094</v>
@@ -14533,10 +14557,10 @@
         <v>62</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>24.9980976955496</v>
@@ -14559,10 +14583,10 @@
         <v>62</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>27.2305851477311</v>
@@ -14585,10 +14609,10 @@
         <v>60</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>4.64539130138419</v>
@@ -14611,10 +14635,10 @@
         <v>60</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>25.3816980720233</v>
@@ -14637,10 +14661,10 @@
         <v>60</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>29.3808405657138</v>
@@ -14663,10 +14687,10 @@
         <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>5.42309278663489</v>
@@ -14689,10 +14713,10 @@
         <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>27.4612681183075</v>
@@ -14715,10 +14739,10 @@
         <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>31.476501127974</v>
@@ -14741,10 +14765,10 @@
         <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>14.5784351539425</v>
@@ -14767,10 +14791,10 @@
         <v>70</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>67.7047647329024</v>
@@ -14790,10 +14814,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>3.66593912604859</v>
@@ -14813,10 +14837,10 @@
         <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>22.8780023894573</v>
@@ -14836,10 +14860,10 @@
         <v>76</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>87.3987039744161</v>
@@ -14859,10 +14883,10 @@
         <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>4.33502688771549</v>
@@ -14885,10 +14909,10 @@
         <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>5.70172192220295</v>
@@ -14908,10 +14932,10 @@
         <v>81</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>5.86818171010514</v>
@@ -14931,10 +14955,10 @@
         <v>81</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>83.0163877655847</v>
@@ -14954,10 +14978,10 @@
         <v>81</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>86.0291633946206</v>
@@ -14980,10 +15004,10 @@
         <v>84</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>2.3170334026479</v>
@@ -15003,10 +15027,10 @@
         <v>90</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>8.54005254194238</v>
@@ -15016,23 +15040,23 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="50" t="n">
+      <c r="B49" s="57" t="n">
         <v>3266129</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="57" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>10.4443494989782</v>
@@ -15055,10 +15079,10 @@
         <v>96</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>11.6274976703486</v>
@@ -15081,10 +15105,10 @@
         <v>98</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>12.3347063140363</v>
@@ -15107,10 +15131,10 @@
         <v>100</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>10.6074262383073</v>
@@ -15133,10 +15157,10 @@
         <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>61.3443068493672</v>
@@ -15159,10 +15183,10 @@
         <v>120</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>63.0673895254065</v>
@@ -15185,10 +15209,10 @@
         <v>120</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>74.6770720374653</v>
@@ -15208,10 +15232,10 @@
         <v>125</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>0.924191976622005</v>
@@ -15234,10 +15258,10 @@
         <v>125</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>26.6145243388797</v>
@@ -15260,10 +15284,10 @@
         <v>125</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>26.812206078278</v>
@@ -15286,10 +15310,10 @@
         <v>123</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>3.30485802174711</v>
@@ -15312,10 +15336,10 @@
         <v>123</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>24.7437693684874</v>
@@ -15338,10 +15362,10 @@
         <v>123</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>27.3504784741642</v>
@@ -15364,10 +15388,10 @@
         <v>128</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>6.98215355633658</v>
@@ -15387,10 +15411,10 @@
         <v>141</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>60.0717412854206</v>
@@ -15410,10 +15434,10 @@
         <v>146</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>6.3406938157437</v>
@@ -15436,10 +15460,10 @@
         <v>146</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>14.2651319809289</v>
@@ -15462,10 +15486,10 @@
         <v>146</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>24.067317735007</v>
@@ -15488,10 +15512,10 @@
         <v>148</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>2.07135560163817</v>
@@ -15514,10 +15538,10 @@
         <v>148</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>18.5564587966287</v>
@@ -15540,10 +15564,10 @@
         <v>148</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>28.360862659443</v>
@@ -15566,10 +15590,10 @@
         <v>155</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>2.5901401585729</v>
@@ -15592,10 +15616,10 @@
         <v>155</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>3.84332775466891</v>
@@ -15618,10 +15642,10 @@
         <v>155</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>74.6799379734395</v>
@@ -15644,10 +15668,10 @@
         <v>161</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>6.9795678748564</v>
@@ -15670,10 +15694,10 @@
         <v>161</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>38.2841422937175</v>
@@ -15696,10 +15720,10 @@
         <v>159</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>10.0692307996459</v>
@@ -15722,10 +15746,10 @@
         <v>159</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>42.0555800455356</v>
@@ -15748,10 +15772,10 @@
         <v>181</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>3.11084056853165</v>
@@ -15774,10 +15798,10 @@
         <v>181</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>5.51573659843163</v>
@@ -15800,10 +15824,10 @@
         <v>170</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>3.05253841878696</v>
@@ -15826,10 +15850,10 @@
         <v>170</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>9.8192087100704</v>
@@ -15852,10 +15876,10 @@
         <v>178</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>4.18944410998739</v>
@@ -15878,10 +15902,10 @@
         <v>178</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>5.96089096841238</v>
@@ -15904,10 +15928,10 @@
         <v>172</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>4.46767930464794</v>
@@ -15930,10 +15954,10 @@
         <v>172</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>12.4527162501011</v>
@@ -15956,10 +15980,10 @@
         <v>184</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>2.15295833302528</v>
@@ -15982,10 +16006,10 @@
         <v>188</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>1.41122334887268</v>
@@ -16008,10 +16032,10 @@
         <v>193</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>9.58699233304989</v>
@@ -16034,10 +16058,10 @@
         <v>193</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>25.9230400324003</v>
@@ -16060,10 +16084,10 @@
         <v>193</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>65.3360483965459</v>
@@ -16083,10 +16107,10 @@
         <v>201</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>5.47275919638933</v>
@@ -16109,10 +16133,10 @@
         <v>201</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>52.8053142814268</v>
@@ -16135,10 +16159,10 @@
         <v>199</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>4.7206883818778</v>
@@ -16161,10 +16185,10 @@
         <v>199</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>53.0238789960061</v>
@@ -16187,10 +16211,10 @@
         <v>203</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>6.72487265476337</v>
@@ -16213,10 +16237,10 @@
         <v>203</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>51.3514175471373</v>
@@ -16239,10 +16263,10 @@
         <v>207</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>10.5838200848442</v>
@@ -16265,10 +16289,10 @@
         <v>207</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>68.078762518023</v>
@@ -16291,10 +16315,10 @@
         <v>209</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>15.1915626672097</v>
@@ -16317,10 +16341,10 @@
         <v>209</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>65.7332326448619</v>
@@ -16343,10 +16367,10 @@
         <v>155</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>13.2815431951498</v>
@@ -16369,10 +16393,10 @@
         <v>155</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>66.4610107981835</v>
@@ -16400,7 +16424,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="K81:N81 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16430,18 +16454,18 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16451,18 +16475,18 @@
       <c r="B2" s="6" t="n">
         <v>24350</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H2" s="6" t="n">
         <v>69.4373388565049</v>
@@ -16478,18 +16502,18 @@
       <c r="B3" s="6" t="n">
         <v>346844</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H3" s="16" t="n">
         <v>73.1187208272004</v>
@@ -16511,12 +16535,12 @@
       <c r="D4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>83.0163877655847</v>
@@ -16535,12 +16559,12 @@
       <c r="D5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H5" s="14" t="n">
         <v>86.0291633946206</v>
@@ -16556,18 +16580,18 @@
       <c r="B6" s="14" t="n">
         <v>219687</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H6" s="14" t="n">
         <v>0.924191976622005</v>
@@ -16583,18 +16607,18 @@
       <c r="B7" s="14" t="n">
         <v>219687</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H7" s="18" t="n">
         <v>26.812206078278</v>
@@ -16610,18 +16634,18 @@
       <c r="B8" s="14" t="n">
         <v>219686</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H8" s="14" t="n">
         <v>3.30485802174711</v>
@@ -16637,18 +16661,18 @@
       <c r="B9" s="14" t="n">
         <v>219686</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H9" s="18" t="n">
         <v>24.7437693684874</v>
@@ -16664,18 +16688,18 @@
       <c r="B10" s="16" t="n">
         <v>271780</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H10" s="18" t="n">
         <v>4.87820055208496</v>
@@ -16691,18 +16715,18 @@
       <c r="B11" s="16" t="n">
         <v>271780</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H11" s="14" t="n">
         <v>26.6079344280865</v>
@@ -16718,18 +16742,18 @@
       <c r="B12" s="16" t="n">
         <v>271782</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H12" s="18" t="n">
         <v>3.13694968970094</v>
@@ -16745,18 +16769,18 @@
       <c r="B13" s="16" t="n">
         <v>271782</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H13" s="14" t="n">
         <v>24.9980976955496</v>
@@ -16772,18 +16796,18 @@
       <c r="B14" s="16" t="n">
         <v>271781</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H14" s="18" t="n">
         <v>4.64539130138419</v>
@@ -16799,18 +16823,18 @@
       <c r="B15" s="16" t="n">
         <v>271781</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H15" s="14" t="n">
         <v>25.3816980720233</v>
@@ -16826,18 +16850,18 @@
       <c r="B16" s="16" t="n">
         <v>271783</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H16" s="18" t="n">
         <v>5.42309278663489</v>
@@ -16853,18 +16877,18 @@
       <c r="B17" s="16" t="n">
         <v>271783</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H17" s="14" t="n">
         <v>27.4612681183075</v>
@@ -16880,18 +16904,18 @@
       <c r="B18" s="18" t="n">
         <v>187417</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H18" s="16" t="n">
         <v>2.07135560163817</v>
@@ -16907,18 +16931,18 @@
       <c r="B19" s="18" t="n">
         <v>187416</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H19" s="16" t="n">
         <v>6.3406938157437</v>
@@ -16928,56 +16952,56 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="34" t="n">
+      <c r="B20" s="39" t="n">
         <v>298412</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="H20" s="34" t="n">
+      <c r="E20" s="58"/>
+      <c r="F20" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="39" t="n">
         <v>2.15295833302528</v>
       </c>
-      <c r="I20" s="34" t="n">
+      <c r="I20" s="39" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="34" t="n">
+      <c r="B21" s="39" t="n">
         <v>298414</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="H21" s="34" t="n">
+      <c r="E21" s="58"/>
+      <c r="F21" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H21" s="39" t="n">
         <v>1.41122334887268</v>
       </c>
-      <c r="I21" s="34" t="n">
+      <c r="I21" s="39" t="n">
         <v>27</v>
       </c>
     </row>
@@ -16994,17 +17018,17 @@
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="H22" s="63" t="n">
+      <c r="E22" s="58"/>
+      <c r="F22" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="70" t="n">
         <v>2.58633915938344</v>
       </c>
-      <c r="I22" s="63" t="n">
+      <c r="I22" s="70" t="n">
         <v>48</v>
       </c>
     </row>
@@ -17021,12 +17045,12 @@
       <c r="D23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H23" s="12" t="n">
         <v>61.3443068493672</v>
@@ -17048,12 +17072,12 @@
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>5.55344335965475</v>
@@ -17072,17 +17096,17 @@
       <c r="D25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="H25" s="63" t="n">
+      <c r="E25" s="58"/>
+      <c r="F25" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="70" t="n">
         <v>22.4471050741635</v>
       </c>
-      <c r="I25" s="63" t="n">
+      <c r="I25" s="70" t="n">
         <v>48</v>
       </c>
     </row>
@@ -17099,12 +17123,12 @@
       <c r="D26" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H26" s="12" t="n">
         <v>25.9230400324003</v>
@@ -17126,12 +17150,12 @@
       <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>2.3170334026479</v>
@@ -17150,12 +17174,12 @@
       <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>3.66593912604859</v>
@@ -17174,12 +17198,12 @@
       <c r="D29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>67.7047647329024</v>
@@ -17198,12 +17222,12 @@
       <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>87.3987039744161</v>
@@ -17222,12 +17246,12 @@
       <c r="D31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="51"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>2.5901401585729</v>
@@ -17249,12 +17273,12 @@
       <c r="D32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>60.0717412854206</v>
@@ -17279,7 +17303,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="K81:N81 D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17309,16 +17333,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17335,10 +17359,10 @@
         <v>120</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>61.3443068493672</v>
@@ -17361,10 +17385,10 @@
         <v>193</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G3" s="6" t="n">
         <v>25.9230400324003</v>
@@ -17387,10 +17411,10 @@
         <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>83.0163877655847</v>
@@ -17410,10 +17434,10 @@
         <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>2.3170334026479</v>
@@ -17433,10 +17457,10 @@
         <v>34</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G6" s="18" t="n">
         <v>73.1187208272004</v>
@@ -17459,10 +17483,10 @@
         <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>0.924191976622005</v>
@@ -17482,10 +17506,10 @@
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>3.13694968970094</v>
@@ -17506,10 +17530,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>3.66593912604859</v>
@@ -17529,10 +17553,10 @@
         <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>67.7047647329024</v>
@@ -17552,10 +17576,10 @@
         <v>76</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>87.3987039744161</v>
@@ -17575,10 +17599,10 @@
         <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>2.5901401585729</v>
@@ -17598,10 +17622,10 @@
         <v>141</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>60.0717412854206</v>
@@ -17621,10 +17645,10 @@
         <v>188</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1.41122334887268</v>
@@ -17644,10 +17668,10 @@
         <v>19</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G15" s="16" t="n">
         <v>2.58633915938344</v>
@@ -17670,10 +17694,10 @@
         <v>148</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G16" s="18" t="n">
         <v>2.07135560163817</v>
@@ -17696,10 +17720,10 @@
         <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>5.55344335965475</v>
@@ -17719,10 +17743,10 @@
         <v>53</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G18" s="16" t="n">
         <v>22.4471050741635</v>
